--- a/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Trimestral.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Trimestral.xlsx
@@ -4998,6 +4998,9 @@
       <c r="M127">
         <v>9.26</v>
       </c>
+      <c r="N127">
+        <v>6.65</v>
+      </c>
       <c r="O127">
         <v>6.74</v>
       </c>

--- a/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Trimestral.xlsx
+++ b/12/2/Tasas de Bonos de Gobierno a 10 años 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Serie</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5008,6 +5011,56 @@
         <v>5.12</v>
       </c>
     </row>
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128">
+        <v>1.32</v>
+      </c>
+      <c r="C128">
+        <v>0.67</v>
+      </c>
+      <c r="D128">
+        <v>0.03</v>
+      </c>
+      <c r="E128">
+        <v>-0.37</v>
+      </c>
+      <c r="F128">
+        <v>2.01</v>
+      </c>
+      <c r="G128">
+        <v>3.23</v>
+      </c>
+      <c r="H128">
+        <v>1.79</v>
+      </c>
+      <c r="I128">
+        <v>1.79</v>
+      </c>
+      <c r="J128">
+        <v>7.06</v>
+      </c>
+      <c r="K128">
+        <v>1.64</v>
+      </c>
+      <c r="L128">
+        <v>6.24</v>
+      </c>
+      <c r="M128">
+        <v>10.17</v>
+      </c>
+      <c r="N128">
+        <v>7.43</v>
+      </c>
+      <c r="O128">
+        <v>7</v>
+      </c>
+      <c r="P128">
+        <v>6.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
